--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity_Shaw\TEngine4.0.12\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PVZ\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B6BA3-2494-4DCF-83EA-D6AA2CA28F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82418B7-BBDC-4BA4-9D24-A749A88CD4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,22 @@
   </si>
   <si>
     <t>VAnim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPrincessCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPrincessCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>princess_card.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrincessType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,19 +486,19 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.35546875" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.35546875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="54.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -549,7 +565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -572,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -586,17 +602,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
